--- a/template_examples/ihc_template.xlsx
+++ b/template_examples/ihc_template.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27417"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlindsay/Desktop/cidc/ihc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5929B1AB-8623-5447-A57B-474400B139D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="5160" windowWidth="44260" windowHeight="21940"/>
+    <workbookView xWindow="56060" yWindow="5840" windowWidth="16100" windowHeight="13000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="assay" sheetId="1" r:id="rId1"/>
+    <sheet name="IHC" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>CIDC</author>
-    <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -42,239 +34,332 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Trial identifier used by lead organization, e.g. Center for Experimental Therapeutics Program (CTEP) ID or Industry Sponsored ID.  This is usually a short identifier. Example: E4412.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F18" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
+          <t>Trial identifier used by lead organization, ie. Center for Experimental Therapeutics Program (CTEP) ID or Industry Sponsored ID.  This is usually a short identifier. Example: E4412.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
             <sz val="10"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">Microsoft Office User:0 - 100
-</t>
-        </r>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Model version of the slide scanner instrument.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G18" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Staining platform used for tissue sample labeling.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
             <sz val="10"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">Microsoft Office User:
-1+, 2+, or 3+
-</t>
-        </r>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Model version of the autostainer instrument.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H18" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Antibody type collected for this study.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
             <sz val="10"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">Microsoft Office User: 0, -3+
-</t>
-        </r>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Company from which antibody sample was derived.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I18" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Resulting type of antibody clone from primary antibody sample.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+      <text>
+        <r>
+          <rPr>
             <sz val="10"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">Microsoft Office User: 0-100
-</t>
-        </r>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Antibody registry catalog number assigned to antibody sample.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J18" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Identification number assigned to the particular quantity or lot of material from manufacturer.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
             <sz val="10"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User:0-3+</t>
-        </r>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Concentration ratio for antibody dilution.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+      <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K18" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Duration of time for antibody incubation.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+      <text>
+        <r>
+          <rPr>
             <sz val="10"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">Microsoft Office User: Is this considered marker positive by FDA guidelines or in accordance with literature
-</t>
-        </r>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Temperature used for antibody incubation.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+      <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L18" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Specimen identifier assigned by the CIMAC-CIDC Network. Formated as CM-????-????-??</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+      <text>
+        <r>
+          <rPr>
             <sz val="10"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">Microsoft Office User:0-100
-</t>
-        </r>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Two digit number that indicates the sequential order of slide cuts, assigned by the CIMAC-CIDC Network.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Path to a file on a user's computer.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+      <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M18" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Path to a file on a user's computer.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+      <text>
+        <r>
+          <rPr>
             <sz val="10"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">Microsoft Office User:
-0-100
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N18" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User:
-0,1,2,3+</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O18" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">Microsoft Office User:
-0-100
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Percentage of tumor positive.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Intensity of positive tumor (1+, 2+ or 3+).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Average intensity of tumor marker (0-3+).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Percentage of positive marker inflammation.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Average intensity of marker inflammation (0-3+).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Indicates whether the marker is considered positive by FDA guidelines.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Percentage of tissue that is viable.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Percentage of tumor.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Degree of lymphoid infiltrate (0-3+).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Percentage of fibrosis.</t>
         </r>
       </text>
     </comment>
@@ -283,21 +368,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="48">
   <si>
     <t>#t</t>
   </si>
   <si>
+    <t>Metadata file for ihc</t>
+  </si>
+  <si>
     <t>#p</t>
   </si>
   <si>
-    <t>SLIDE SCANNER MODEL</t>
-  </si>
-  <si>
-    <t>STAINING PLATFORM</t>
-  </si>
-  <si>
-    <t>AUTOSTAINER MODEL</t>
+    <t>Protocol identifier</t>
+  </si>
+  <si>
+    <t>Slide scanner model</t>
+  </si>
+  <si>
+    <t>Staining platform</t>
+  </si>
+  <si>
+    <t>Autostainer model</t>
+  </si>
+  <si>
+    <t>Antibody name</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Clone</t>
+  </si>
+  <si>
+    <t>Catalogue number</t>
+  </si>
+  <si>
+    <t>Lot number</t>
+  </si>
+  <si>
+    <t>Dilution</t>
+  </si>
+  <si>
+    <t>Incubation time</t>
+  </si>
+  <si>
+    <t>Incubation temperature</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Chromogenic IHC</t>
+  </si>
+  <si>
+    <t>H and E</t>
   </si>
   <si>
     <t>#h</t>
@@ -306,6 +430,48 @@
     <t>#d</t>
   </si>
   <si>
+    <t>Cimac id</t>
+  </si>
+  <si>
+    <t>Slide number</t>
+  </si>
+  <si>
+    <t>Ihc image path</t>
+  </si>
+  <si>
+    <t>H and e image path</t>
+  </si>
+  <si>
+    <t>Percentage tumor positive</t>
+  </si>
+  <si>
+    <t>Tumor positive intensity</t>
+  </si>
+  <si>
+    <t>Average tumor marker intensity</t>
+  </si>
+  <si>
+    <t>Percent inflammation marker positive</t>
+  </si>
+  <si>
+    <t>Average inflammation marker intensity</t>
+  </si>
+  <si>
+    <t>Clinically positive</t>
+  </si>
+  <si>
+    <t>Percentage viable tissue</t>
+  </si>
+  <si>
+    <t>Percentage tumor</t>
+  </si>
+  <si>
+    <t>Degree of lymphoid infiltrate</t>
+  </si>
+  <si>
+    <t>Percentage fibrosis</t>
+  </si>
+  <si>
     <t>E4412</t>
   </si>
   <si>
@@ -318,119 +484,41 @@
     <t>Leica Bond RX</t>
   </si>
   <si>
+    <t>PD-L1</t>
+  </si>
+  <si>
+    <t>Cell Signaling</t>
+  </si>
+  <si>
+    <t>E1L3N</t>
+  </si>
+  <si>
+    <t>1:200</t>
+  </si>
+  <si>
+    <t>1 hr</t>
+  </si>
+  <si>
     <t>RT</t>
   </si>
   <si>
-    <t>METADATA FILE FOR IHC</t>
-  </si>
-  <si>
-    <t>PROTOCOL IDENTIFIER</t>
-  </si>
-  <si>
-    <t>PD-L1</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Cell Signaling</t>
-  </si>
-  <si>
-    <t>Clone</t>
-  </si>
-  <si>
-    <t>E1L3N</t>
-  </si>
-  <si>
-    <t>Catalogue Number</t>
-  </si>
-  <si>
-    <t>Lot Number</t>
-  </si>
-  <si>
-    <t>Dilution</t>
-  </si>
-  <si>
-    <t>1:200</t>
-  </si>
-  <si>
-    <t>Incubation Time</t>
-  </si>
-  <si>
-    <t>1 hr</t>
-  </si>
-  <si>
-    <t>Incubation Temperature</t>
-  </si>
-  <si>
-    <t>Antibody Name</t>
-  </si>
-  <si>
-    <t>CIMAC ID</t>
-  </si>
-  <si>
-    <t>SLIDE NUMBER</t>
-  </si>
-  <si>
     <t>CM-ABCD-1234-01</t>
   </si>
   <si>
-    <t>PERCENTAGE  TUMOR POSITIVE</t>
-  </si>
-  <si>
-    <t>PERCENTAGE TUMOR</t>
-  </si>
-  <si>
-    <t>DEGREE OF LLYMPHOID INFILTRATE</t>
-  </si>
-  <si>
-    <t>PERCENTAGE FIBROSIS</t>
-  </si>
-  <si>
-    <t>TUMOR POSITIVE INTENSITY</t>
-  </si>
-  <si>
-    <t>AVERAGE TUMOR MARKER INTENSITY</t>
-  </si>
-  <si>
-    <t>PERCENT INFLAMMATION MARKER POSITIVE</t>
-  </si>
-  <si>
-    <t>AVERAGE INFLAMMATION MARKER INTENSITY</t>
-  </si>
-  <si>
-    <t>Chromogenic IHC</t>
-  </si>
-  <si>
-    <t>CLINICALLY POSITIVE</t>
-  </si>
-  <si>
-    <t>PERCENTAGE VIABLE TISSUE</t>
-  </si>
-  <si>
-    <t>H and E</t>
-  </si>
-  <si>
-    <t>IHC IMAGE PATH</t>
-  </si>
-  <si>
-    <t>H and E IMAGE PATH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample </t>
-  </si>
-  <si>
     <t>/path/to/ihc.tiff</t>
   </si>
   <si>
     <t>/path/to/hande.tiff</t>
+  </si>
+  <si>
+    <t>1+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,17 +542,12 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,20 +572,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -536,62 +607,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,9 +688,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -686,14 +718,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -721,6 +770,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -896,68 +962,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD218"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="34.5" customWidth="1"/>
-    <col min="9" max="9" width="37.5" customWidth="1"/>
-    <col min="10" max="10" width="36.83203125" customWidth="1"/>
-    <col min="11" max="107" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-    </row>
-    <row r="2" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -972,15 +1019,15 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -995,15 +1042,15 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1018,15 +1065,15 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1041,15 +1088,15 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1064,15 +1111,15 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1087,15 +1134,15 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1110,12 +1157,12 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
         <v>13684</v>
@@ -1133,12 +1180,12 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
         <v>547645</v>
@@ -1156,15 +1203,15 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1179,15 +1226,15 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1202,15 +1249,15 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1225,1150 +1272,1130 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="4">
         <v>1</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17">
+        <v>80</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17">
+        <v>80</v>
+      </c>
+      <c r="J17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17">
         <v>1</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M19" s="3">
-        <v>1</v>
-      </c>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AD19" s="4"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>80</v>
+      </c>
+      <c r="M17" s="4">
+        <v>80</v>
+      </c>
+      <c r="N17" t="s">
+        <v>47</v>
+      </c>
+      <c r="O17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B1:AD1"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="L15:O15"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:E3">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{9D374CEE-1394-E84C-8333-7CEE43B7B5FC}">
       <formula1>"Vectra 2.0,Hamamatsu"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:E4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{736F1B74-CFCD-2347-822C-63638F502660}">
       <formula1>"auto,manual"</formula1>
-    </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="T19:T218 AD19:AD218 AA19:AA218">
-      <formula1>0</formula1>
-      <formula2>0.999305555555555</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template_examples/ihc_template.xlsx
+++ b/template_examples/ihc_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5929B1AB-8623-5447-A57B-474400B139D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DA5368-86F8-664A-BBB4-18B9C8DE6F14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="56060" yWindow="5840" windowWidth="16100" windowHeight="13000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,7 +368,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="47">
   <si>
     <t>#t</t>
   </si>
@@ -509,9 +509,6 @@
   </si>
   <si>
     <t>/path/to/hande.tiff</t>
-  </si>
-  <si>
-    <t>1+</t>
   </si>
 </sst>
 </file>
@@ -619,11 +616,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -979,22 +976,22 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1273,26 +1270,26 @@
       <c r="O13" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3" t="s">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1345,32 +1342,32 @@
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F17">
         <v>80</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1.5</v>
       </c>
       <c r="I17">
         <v>80</v>
       </c>
-      <c r="J17" t="s">
-        <v>47</v>
+      <c r="J17">
+        <v>1.5</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1378,11 +1375,11 @@
       <c r="L17">
         <v>80</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="3">
         <v>80</v>
       </c>
-      <c r="N17" t="s">
-        <v>47</v>
+      <c r="N17">
+        <v>1</v>
       </c>
       <c r="O17">
         <v>80</v>

--- a/template_examples/ihc_template.xlsx
+++ b/template_examples/ihc_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DA5368-86F8-664A-BBB4-18B9C8DE6F14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11F20E5-F14D-CA4E-8BBD-B933BB7EC738}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56060" yWindow="5840" windowWidth="16100" windowHeight="13000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="23340" windowHeight="12740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IHC" sheetId="1" r:id="rId1"/>
@@ -212,7 +212,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -242,7 +242,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Percentage of tumor positive.</t>
+          <t>Percentage of tumor positive (0 - 100).</t>
         </r>
       </text>
     </comment>
@@ -251,11 +251,11 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Intensity of positive tumor (1+, 2+ or 3+).</t>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Intensity of positive tumor (1, 2, or 3).</t>
         </r>
       </text>
     </comment>
@@ -264,11 +264,11 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Average intensity of tumor marker (0-3+).</t>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Average intensity of tumor marker (0 - 3).</t>
         </r>
       </text>
     </comment>
@@ -277,11 +277,11 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Percentage of positive marker inflammation.</t>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Percentage of positive marker inflammation (0 - 100).</t>
         </r>
       </text>
     </comment>
@@ -290,11 +290,11 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Average intensity of marker inflammation (0-3+).</t>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Average intensity of marker inflammation (0 - 3).</t>
         </r>
       </text>
     </comment>
@@ -303,7 +303,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -316,11 +316,11 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Percentage of tissue that is viable.</t>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Percentage of tissue that is viable (0 - 100).</t>
         </r>
       </text>
     </comment>
@@ -329,11 +329,11 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Percentage of tumor.</t>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Percentage of tumor (0 - 100).</t>
         </r>
       </text>
     </comment>
@@ -342,11 +342,11 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Degree of lymphoid infiltrate (0-3+).</t>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Degree of lymphoid infiltrate (0, 1, 2, or 3).</t>
         </r>
       </text>
     </comment>
@@ -355,11 +355,11 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Percentage of fibrosis.</t>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Percentage of fibrosis (0 - 100).</t>
         </r>
       </text>
     </comment>
@@ -472,6 +472,15 @@
     <t>Percentage fibrosis</t>
   </si>
   <si>
+    <t>CM-ABCD-1234-01</t>
+  </si>
+  <si>
+    <t>/path/to/ihc.tiff</t>
+  </si>
+  <si>
+    <t>/path/to/hande.tiff</t>
+  </si>
+  <si>
     <t>E4412</t>
   </si>
   <si>
@@ -493,29 +502,20 @@
     <t>E1L3N</t>
   </si>
   <si>
+    <t>1 hr</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
     <t>1:200</t>
-  </si>
-  <si>
-    <t>1 hr</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>CM-ABCD-1234-01</t>
-  </si>
-  <si>
-    <t>/path/to/ihc.tiff</t>
-  </si>
-  <si>
-    <t>/path/to/hande.tiff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,12 +534,6 @@
     <font>
       <sz val="10"/>
       <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -608,16 +602,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -962,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -972,28 +963,28 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1001,7 +992,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1016,7 +1007,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1024,7 +1015,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1039,7 +1030,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1047,7 +1038,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1062,7 +1053,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1070,7 +1061,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1085,7 +1076,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1093,7 +1084,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1108,7 +1099,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1116,7 +1107,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1131,7 +1122,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1139,7 +1130,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1154,7 +1145,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1177,7 +1168,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1200,7 +1191,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1208,7 +1199,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1223,7 +1214,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1231,7 +1222,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1246,7 +1237,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1254,7 +1245,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1270,26 +1261,26 @@
       <c r="O13" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1342,22 +1333,22 @@
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>46</v>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
       </c>
       <c r="F17">
         <v>80</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
@@ -1375,7 +1366,7 @@
       <c r="L17">
         <v>80</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17">
         <v>80</v>
       </c>
       <c r="N17">
@@ -2388,10 +2379,10 @@
     <mergeCell ref="L15:O15"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{9D374CEE-1394-E84C-8333-7CEE43B7B5FC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{EE4DFFF7-96CD-E54C-8679-172B579F86B0}">
       <formula1>"Vectra 2.0,Hamamatsu"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{736F1B74-CFCD-2347-822C-63638F502660}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{1230F1A2-726E-6B41-8283-B982BF0C16A0}">
       <formula1>"auto,manual"</formula1>
     </dataValidation>
   </dataValidations>

--- a/template_examples/ihc_template.xlsx
+++ b/template_examples/ihc_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11F20E5-F14D-CA4E-8BBD-B933BB7EC738}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E686FA82-BAC0-1A44-BFE8-EB4C466955CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="23340" windowHeight="12740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IHC" sheetId="1" r:id="rId1"/>
@@ -472,6 +472,36 @@
     <t>Percentage fibrosis</t>
   </si>
   <si>
+    <t>E4412</t>
+  </si>
+  <si>
+    <t>Hamamatsu</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>Leica Bond RX</t>
+  </si>
+  <si>
+    <t>PD-L1</t>
+  </si>
+  <si>
+    <t>Cell Signaling</t>
+  </si>
+  <si>
+    <t>E1L3N</t>
+  </si>
+  <si>
+    <t>1:200</t>
+  </si>
+  <si>
+    <t>1 hr</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
     <t>CM-ABCD-1234-01</t>
   </si>
   <si>
@@ -479,36 +509,6 @@
   </si>
   <si>
     <t>/path/to/hande.tiff</t>
-  </si>
-  <si>
-    <t>E4412</t>
-  </si>
-  <si>
-    <t>Hamamatsu</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>Leica Bond RX</t>
-  </si>
-  <si>
-    <t>PD-L1</t>
-  </si>
-  <si>
-    <t>Cell Signaling</t>
-  </si>
-  <si>
-    <t>E1L3N</t>
-  </si>
-  <si>
-    <t>1 hr</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>1:200</t>
   </si>
 </sst>
 </file>
@@ -602,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
@@ -612,6 +612,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -953,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="L11" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -963,7 +966,7 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -984,7 +987,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -992,7 +995,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1007,7 +1010,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1015,7 +1018,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1030,7 +1033,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1038,7 +1041,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1053,7 +1056,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1061,7 +1064,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1076,7 +1079,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1084,7 +1087,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1099,7 +1102,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1107,7 +1110,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1122,7 +1125,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1130,7 +1133,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1145,7 +1148,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1168,7 +1171,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1191,7 +1194,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1199,7 +1202,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1214,7 +1217,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1222,7 +1225,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1237,7 +1240,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1245,7 +1248,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1333,46 +1336,46 @@
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="4">
         <v>1</v>
       </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17">
+      <c r="D17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="4">
         <v>80</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="4">
         <v>1</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="4">
         <v>1.5</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="4">
         <v>80</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="4">
         <v>1.5</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="4">
         <v>1</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="4">
         <v>80</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="4">
         <v>80</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="4">
         <v>1</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="4">
         <v>80</v>
       </c>
     </row>
@@ -2379,10 +2382,10 @@
     <mergeCell ref="L15:O15"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{EE4DFFF7-96CD-E54C-8679-172B579F86B0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{03039137-D87F-7942-8019-790D3E2AF91D}">
       <formula1>"Vectra 2.0,Hamamatsu"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{1230F1A2-726E-6B41-8283-B982BF0C16A0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{4E41B3C5-1358-AA41-AB78-4708A51BDBFC}">
       <formula1>"auto,manual"</formula1>
     </dataValidation>
   </dataValidations>

--- a/template_examples/ihc_template.xlsx
+++ b/template_examples/ihc_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E686FA82-BAC0-1A44-BFE8-EB4C466955CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1E0F92-5A4B-6449-9D93-151C69B08AEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,9 +472,6 @@
     <t>Percentage fibrosis</t>
   </si>
   <si>
-    <t>E4412</t>
-  </si>
-  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
@@ -509,6 +506,9 @@
   </si>
   <si>
     <t>/path/to/hande.tiff</t>
+  </si>
+  <si>
+    <t>ihc_test_trial</t>
   </si>
 </sst>
 </file>
@@ -610,11 +610,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -956,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L11" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -970,22 +970,22 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -995,7 +995,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1018,7 +1018,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1041,7 +1041,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1064,7 +1064,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1087,7 +1087,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1110,7 +1110,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1133,7 +1133,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1202,7 +1202,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1225,7 +1225,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1248,7 +1248,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1264,26 +1264,26 @@
       <c r="O13" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3" t="s">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1336,46 +1336,46 @@
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="4">
+      <c r="E17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="3">
+        <v>80</v>
+      </c>
+      <c r="G17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="H17" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I17" s="3">
         <v>80</v>
       </c>
-      <c r="G17" s="4">
+      <c r="J17" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K17" s="3">
         <v>1</v>
       </c>
-      <c r="H17" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="L17" s="3">
         <v>80</v>
       </c>
-      <c r="J17" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="K17" s="4">
+      <c r="M17" s="3">
+        <v>80</v>
+      </c>
+      <c r="N17" s="3">
         <v>1</v>
       </c>
-      <c r="L17" s="4">
-        <v>80</v>
-      </c>
-      <c r="M17" s="4">
-        <v>80</v>
-      </c>
-      <c r="N17" s="4">
-        <v>1</v>
-      </c>
-      <c r="O17" s="4">
+      <c r="O17" s="3">
         <v>80</v>
       </c>
     </row>

--- a/template_examples/ihc_template.xlsx
+++ b/template_examples/ihc_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1E0F92-5A4B-6449-9D93-151C69B08AEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87BA53C-6CC5-0545-A1B6-5FB893B5DC80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,11 +47,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Indicates what site is filling out the assay.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Protocol name for which imaging experiment conducted.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Model version of the slide scanner instrument.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -129,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -142,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -155,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -168,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -181,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -194,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -207,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -220,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -233,7 +259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="F18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -246,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="G18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -259,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -272,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -285,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -298,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="K18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -311,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="L18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -324,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="M18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -337,7 +363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="N18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -350,7 +376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="O18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -368,7 +394,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="51">
   <si>
     <t>#t</t>
   </si>
@@ -382,6 +408,12 @@
     <t>Protocol identifier</t>
   </si>
   <si>
+    <t>Assay creator</t>
+  </si>
+  <si>
+    <t>Protocol name</t>
+  </si>
+  <si>
     <t>Slide scanner model</t>
   </si>
   <si>
@@ -436,10 +468,10 @@
     <t>Slide number</t>
   </si>
   <si>
-    <t>Ihc image path</t>
-  </si>
-  <si>
-    <t>H and e image path</t>
+    <t>Ihc image</t>
+  </si>
+  <si>
+    <t>H and e image</t>
   </si>
   <si>
     <t>Percentage tumor positive</t>
@@ -472,6 +504,15 @@
     <t>Percentage fibrosis</t>
   </si>
   <si>
+    <t>CM-ABCD-1234-01</t>
+  </si>
+  <si>
+    <t>/path/to/ihc.tiff</t>
+  </si>
+  <si>
+    <t>/path/to/hande.tiff</t>
+  </si>
+  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
@@ -499,13 +540,10 @@
     <t>RT</t>
   </si>
   <si>
-    <t>CM-ABCD-1234-01</t>
-  </si>
-  <si>
-    <t>/path/to/ihc.tiff</t>
-  </si>
-  <si>
-    <t>/path/to/hande.tiff</t>
+    <t>ihc_test_trial_name</t>
+  </si>
+  <si>
+    <t>DFCI</t>
   </si>
   <si>
     <t>ihc_test_trial</t>
@@ -610,11 +648,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -954,7 +992,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O216"/>
+  <dimension ref="A1:O218"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -970,22 +1008,22 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -995,7 +1033,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1018,7 +1056,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1041,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1064,7 +1102,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1087,7 +1125,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1110,7 +1148,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1133,7 +1171,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1155,8 +1193,8 @@
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1">
-        <v>13684</v>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1178,8 +1216,8 @@
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1">
-        <v>547645</v>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1201,8 +1239,8 @@
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>40</v>
+      <c r="C11" s="1">
+        <v>13684</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1224,8 +1262,8 @@
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>41</v>
+      <c r="C12" s="1">
+        <v>547645</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1248,7 +1286,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1263,1129 +1301,1178 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4" t="s">
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="3">
-        <v>80</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>80</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1</v>
-      </c>
-      <c r="L17" s="3">
-        <v>80</v>
-      </c>
-      <c r="M17" s="3">
-        <v>80</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1</v>
-      </c>
-      <c r="O17" s="3">
-        <v>80</v>
-      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="4">
+        <v>80</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I19" s="4">
+        <v>80</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1</v>
+      </c>
+      <c r="L19" s="4">
+        <v>80</v>
+      </c>
+      <c r="M19" s="4">
+        <v>80</v>
+      </c>
+      <c r="N19" s="4">
+        <v>1</v>
+      </c>
+      <c r="O19" s="4">
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:O1"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="L17:O17"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{03039137-D87F-7942-8019-790D3E2AF91D}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"DFCI,Mount Sinai,Stanford,MD Anderson"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{40561C15-00F3-9046-BE7A-1DD1AEC23B62}">
       <formula1>"Vectra 2.0,Hamamatsu"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{4E41B3C5-1358-AA41-AB78-4708A51BDBFC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{F11DCBB6-15B8-DB44-A70A-A8096F3ADC2D}">
       <formula1>"auto,manual"</formula1>
     </dataValidation>
   </dataValidations>

--- a/template_examples/ihc_template.xlsx
+++ b/template_examples/ihc_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87BA53C-6CC5-0545-A1B6-5FB893B5DC80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EACED17-2EC5-FC41-891A-33EADBEECA30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10700" yWindow="2360" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IHC" sheetId="1" r:id="rId1"/>
@@ -504,6 +504,42 @@
     <t>Percentage fibrosis</t>
   </si>
   <si>
+    <t>ihc_test_trial</t>
+  </si>
+  <si>
+    <t>DFCI</t>
+  </si>
+  <si>
+    <t>ihc_test_trial_name</t>
+  </si>
+  <si>
+    <t>Hamamatsu</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>Leica Bond RX</t>
+  </si>
+  <si>
+    <t>PD-L1</t>
+  </si>
+  <si>
+    <t>Cell Signaling</t>
+  </si>
+  <si>
+    <t>E1L3N</t>
+  </si>
+  <si>
+    <t>1:200</t>
+  </si>
+  <si>
+    <t>1 hr</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
     <t>CM-ABCD-1234-01</t>
   </si>
   <si>
@@ -511,42 +547,6 @@
   </si>
   <si>
     <t>/path/to/hande.tiff</t>
-  </si>
-  <si>
-    <t>Hamamatsu</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>Leica Bond RX</t>
-  </si>
-  <si>
-    <t>PD-L1</t>
-  </si>
-  <si>
-    <t>Cell Signaling</t>
-  </si>
-  <si>
-    <t>E1L3N</t>
-  </si>
-  <si>
-    <t>1:200</t>
-  </si>
-  <si>
-    <t>1 hr</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>ihc_test_trial_name</t>
-  </si>
-  <si>
-    <t>DFCI</t>
-  </si>
-  <si>
-    <t>ihc_test_trial</t>
   </si>
 </sst>
 </file>
@@ -994,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="B19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1033,7 +1033,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1056,7 +1056,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1079,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1421,16 +1421,16 @@
         <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F19" s="4">
         <v>80</v>
@@ -2469,10 +2469,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"DFCI,Mount Sinai,Stanford,MD Anderson"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{40561C15-00F3-9046-BE7A-1DD1AEC23B62}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Vectra 2.0,Hamamatsu"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{F11DCBB6-15B8-DB44-A70A-A8096F3ADC2D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{59F64D02-2A1C-0B40-8DAA-39F5C9D9DD3D}">
       <formula1>"auto,manual"</formula1>
     </dataValidation>
   </dataValidations>

--- a/template_examples/ihc_template.xlsx
+++ b/template_examples/ihc_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EACED17-2EC5-FC41-891A-33EADBEECA30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845B9CBA-A763-4A41-932A-E892CBA3A264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10700" yWindow="2360" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -540,20 +540,20 @@
     <t>RT</t>
   </si>
   <si>
-    <t>CM-ABCD-1234-01</t>
-  </si>
-  <si>
     <t>/path/to/ihc.tiff</t>
   </si>
   <si>
     <t>/path/to/hande.tiff</t>
+  </si>
+  <si>
+    <t>CTTTP01A1.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,6 +573,12 @@
       <sz val="10"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -640,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
@@ -648,12 +654,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -995,7 +1002,7 @@
   <dimension ref="A1:O218"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="B19" sqref="A19:XFD19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1008,22 +1015,22 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1348,26 +1355,26 @@
       <c r="O15" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3" t="s">
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1420,46 +1427,46 @@
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="4">
+      <c r="E19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="3">
+        <v>80</v>
+      </c>
+      <c r="G19" s="3">
         <v>1</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="H19" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I19" s="3">
         <v>80</v>
       </c>
-      <c r="G19" s="4">
+      <c r="J19" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K19" s="3">
         <v>1</v>
       </c>
-      <c r="H19" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="I19" s="4">
+      <c r="L19" s="3">
         <v>80</v>
       </c>
-      <c r="J19" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="K19" s="4">
+      <c r="M19" s="3">
+        <v>80</v>
+      </c>
+      <c r="N19" s="3">
         <v>1</v>
       </c>
-      <c r="L19" s="4">
-        <v>80</v>
-      </c>
-      <c r="M19" s="4">
-        <v>80</v>
-      </c>
-      <c r="N19" s="4">
-        <v>1</v>
-      </c>
-      <c r="O19" s="4">
+      <c r="O19" s="3">
         <v>80</v>
       </c>
     </row>

--- a/template_examples/ihc_template.xlsx
+++ b/template_examples/ihc_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlurye/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845B9CBA-A763-4A41-932A-E892CBA3A264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717D6874-D324-F244-BABD-26F8329DD3BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10700" yWindow="2360" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -504,9 +504,6 @@
     <t>Percentage fibrosis</t>
   </si>
   <si>
-    <t>ihc_test_trial</t>
-  </si>
-  <si>
     <t>DFCI</t>
   </si>
   <si>
@@ -547,6 +544,9 @@
   </si>
   <si>
     <t>CTTTP01A1.00</t>
+  </si>
+  <si>
+    <t>test_prism_trial_id</t>
   </si>
 </sst>
 </file>
@@ -657,10 +657,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1001,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1011,28 +1011,28 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1055,7 +1055,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1086,7 +1086,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1109,7 +1109,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1132,7 +1132,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1155,7 +1155,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1178,7 +1178,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1201,7 +1201,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1224,7 +1224,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1293,7 +1293,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1316,7 +1316,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1339,7 +1339,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1355,26 +1355,26 @@
       <c r="O15" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4" t="s">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1427,17 +1427,17 @@
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>50</v>
+      <c r="B19" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="F19" s="3">
         <v>80</v>

--- a/template_examples/ihc_template.xlsx
+++ b/template_examples/ihc_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlurye/code/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717D6874-D324-F244-BABD-26F8329DD3BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0BDB3C-D790-1849-9A9F-4B31093B5AF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10700" yWindow="2360" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/template_examples/ihc_template.xlsx
+++ b/template_examples/ihc_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845B9CBA-A763-4A41-932A-E892CBA3A264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0BDB3C-D790-1849-9A9F-4B31093B5AF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10700" yWindow="2360" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -504,9 +504,6 @@
     <t>Percentage fibrosis</t>
   </si>
   <si>
-    <t>ihc_test_trial</t>
-  </si>
-  <si>
     <t>DFCI</t>
   </si>
   <si>
@@ -547,6 +544,9 @@
   </si>
   <si>
     <t>CTTTP01A1.00</t>
+  </si>
+  <si>
+    <t>test_prism_trial_id</t>
   </si>
 </sst>
 </file>
@@ -657,10 +657,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1001,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1011,28 +1011,28 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1055,7 +1055,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1086,7 +1086,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1109,7 +1109,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1132,7 +1132,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1155,7 +1155,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1178,7 +1178,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1201,7 +1201,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1224,7 +1224,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1293,7 +1293,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1316,7 +1316,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1339,7 +1339,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1355,26 +1355,26 @@
       <c r="O15" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4" t="s">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1427,17 +1427,17 @@
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>50</v>
+      <c r="B19" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="F19" s="3">
         <v>80</v>

--- a/template_examples/ihc_template.xlsx
+++ b/template_examples/ihc_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0BDB3C-D790-1849-9A9F-4B31093B5AF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053737D9-94EF-7341-88C2-9787865F07BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10700" yWindow="2360" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10700" yWindow="2360" windowWidth="28600" windowHeight="13660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IHC" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{8C0C1B97-AB98-3C4A-969D-B8E4AD74E678}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Indicates what site is filling out the assay.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{BF53A3CA-6DED-C54A-8FEA-E4E36C1311A1}">
       <text>
         <r>
           <rPr>
@@ -64,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{DCB33C40-A309-9449-B8AD-AC84BD44B664}">
       <text>
         <r>
           <rPr>
@@ -77,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{AAB72F5F-0541-354A-A810-6F2A01956CC5}">
       <text>
         <r>
           <rPr>
@@ -90,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{741C9D0B-7060-DB46-B730-93668FC3419E}">
       <text>
         <r>
           <rPr>
@@ -103,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{48500542-8F9E-664A-AA57-BCD8BCD714C6}">
       <text>
         <r>
           <rPr>
@@ -116,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{4F058587-6AD6-0B48-834E-A90E571E47E3}">
       <text>
         <r>
           <rPr>
@@ -129,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{B01E1999-45EB-7048-8CE4-4DE72816C39A}">
       <text>
         <r>
           <rPr>
@@ -142,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{A4DFC82B-60A8-474C-9A80-B0137DE70749}">
       <text>
         <r>
           <rPr>
@@ -155,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{6095172E-9EE4-1B4A-B268-EB51CA91833C}">
       <text>
         <r>
           <rPr>
@@ -168,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{3C0751AA-7459-8B4E-B012-E93E824B45FC}">
       <text>
         <r>
           <rPr>
@@ -181,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{2EC2CD03-D07E-5E49-AF83-9733FA0DD362}">
       <text>
         <r>
           <rPr>
@@ -194,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{0A08F4F5-0CCB-A749-AF43-0D749559CB57}">
       <text>
         <r>
           <rPr>
@@ -207,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{5EE0AD12-197F-2D4C-A3C1-CC2D9C435509}">
       <text>
         <r>
           <rPr>
@@ -220,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{2D08D7D5-F1ED-624C-BECA-5381ADC15DBA}">
       <text>
         <r>
           <rPr>
@@ -233,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{5AFC3A79-5E33-F844-9B3B-D56565F03001}">
       <text>
         <r>
           <rPr>
@@ -246,7 +259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{127AB864-99D2-C040-993A-EE09AFF3003D}">
       <text>
         <r>
           <rPr>
@@ -259,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{F439FE65-349E-4E42-88BF-63A79A3D5908}">
       <text>
         <r>
           <rPr>
@@ -272,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{EB77D7A5-3BE2-8644-9039-8C723F2D96BF}">
       <text>
         <r>
           <rPr>
@@ -285,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{9368CA42-FD4C-094F-B8BA-0BAB7A55C8C7}">
       <text>
         <r>
           <rPr>
@@ -298,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{E74C7CF8-B217-344E-9AEC-46079A406F48}">
       <text>
         <r>
           <rPr>
@@ -311,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="J19" authorId="0" shapeId="0" xr:uid="{8F7B7E60-6251-0847-907D-0509B12CDF0A}">
       <text>
         <r>
           <rPr>
@@ -324,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="K19" authorId="0" shapeId="0" xr:uid="{FAB0618E-D493-DB40-856B-60F8CB42FC58}">
       <text>
         <r>
           <rPr>
@@ -337,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="L19" authorId="0" shapeId="0" xr:uid="{7AF2ECC5-201A-FE49-B097-1A3B0FF7CC24}">
       <text>
         <r>
           <rPr>
@@ -350,7 +363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="M19" authorId="0" shapeId="0" xr:uid="{C586E314-44AE-7D4D-930B-8649E96B77B9}">
       <text>
         <r>
           <rPr>
@@ -363,7 +376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="N19" authorId="0" shapeId="0" xr:uid="{859FEE0C-1E60-A449-9B0D-67258B3EFC1F}">
       <text>
         <r>
           <rPr>
@@ -376,7 +389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+    <comment ref="O19" authorId="0" shapeId="0" xr:uid="{16259F07-9D4D-5C4B-9E38-80BEEE122B41}">
       <text>
         <r>
           <rPr>
@@ -394,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="52">
   <si>
     <t>#t</t>
   </si>
@@ -547,6 +560,9 @@
   </si>
   <si>
     <t>test_prism_trial_id</t>
+  </si>
+  <si>
+    <t>Assay run date</t>
   </si>
 </sst>
 </file>
@@ -646,7 +662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
@@ -660,6 +676,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1002,7 +1024,7 @@
   <dimension ref="A1:O218"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1015,22 +1037,22 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1060,10 +1082,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
+      </c>
+      <c r="C3" s="7">
+        <v>36892</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1078,15 +1100,15 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1101,15 +1123,15 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1124,15 +1146,15 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1147,15 +1169,15 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1170,15 +1192,15 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1193,15 +1215,15 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1216,15 +1238,15 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1239,15 +1261,15 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1">
-        <v>13684</v>
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1262,15 +1284,15 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
-        <v>547645</v>
+        <v>13684</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1285,15 +1307,15 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>547645</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1308,15 +1330,15 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1331,15 +1353,15 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1354,126 +1376,144 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
+    <row r="16" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5" t="s">
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="3">
-        <v>80</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="I19" s="3">
-        <v>80</v>
-      </c>
-      <c r="J19" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1</v>
-      </c>
-      <c r="L19" s="3">
-        <v>80</v>
-      </c>
-      <c r="M19" s="3">
-        <v>80</v>
-      </c>
-      <c r="N19" s="3">
-        <v>1</v>
-      </c>
-      <c r="O19" s="3">
-        <v>80</v>
+        <v>20</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
+      <c r="B20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="3">
+        <v>80</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>80</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3">
+        <v>80</v>
+      </c>
+      <c r="M20" s="3">
+        <v>80</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1</v>
+      </c>
+      <c r="O20" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -2466,20 +2506,17 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="1">
     <mergeCell ref="B1:O1"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="L17:O17"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"DFCI,Mount Sinai,Stanford,MD Anderson"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{5CF6F8EF-60B0-EC47-809A-D174CC2404D2}">
       <formula1>"Vectra 2.0,Hamamatsu"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{59F64D02-2A1C-0B40-8DAA-39F5C9D9DD3D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{B80AEED3-B26C-AE4A-BD51-9C3B2B4C8BCF}">
       <formula1>"auto,manual"</formula1>
     </dataValidation>
   </dataValidations>

--- a/template_examples/ihc_template.xlsx
+++ b/template_examples/ihc_template.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27417"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlindsay/Documents/Code/cidc/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0BDB3C-D790-1849-9A9F-4B31093B5AF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10700" yWindow="2360" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="37300" windowHeight="19320"/>
   </bookViews>
   <sheets>
     <sheet name="IHC" sheetId="1" r:id="rId1"/>
+    <sheet name="Legend" sheetId="2" r:id="rId2"/>
+    <sheet name="Data Dictionary" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>CIDC</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -38,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,20 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Protocol name for which imaging experiment conducted.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="B5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="B6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="B7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="B8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="B9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="B10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="B11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="B12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="B13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -190,11 +186,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Duration of time for antibody incubation.</t>
+          <t>Time duration of antibody incubation.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="B14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="B17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -216,11 +212,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Specimen identifier assigned by the CIMAC-CIDC Network. Formated as CM-????-????-??</t>
+          <t>Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as C????????.??</t>
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="C17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -229,11 +225,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Two digit number that indicates the sequential order of slide cuts, assigned by the CIMAC-CIDC Network.</t>
+          <t>Path to a file on a user's computer.
+In .tiff format</t>
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="D17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -242,11 +239,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Path to a file on a user's computer.</t>
+          <t>Indicates whether the marker is considered positive by clinical trial guidelines (if applicable).</t>
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="E17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -255,11 +252,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Path to a file on a user's computer.</t>
+          <t>Tumor Proportion Score (TPS) is the percentage of viable tumor cells showing marker staining relative to all viable tumor cells.</t>
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="F17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -268,11 +265,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Percentage of tumor positive (0 - 100).</t>
+          <t>Combined Positive Score (CPS) is the percentage of marker staining cells (tumor cells and cells that are non-tumor) relative to all viable tumor cells.</t>
         </r>
       </text>
     </comment>
-    <comment ref="G18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="G17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -281,11 +278,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Intensity of positive tumor (1, 2, or 3).</t>
+          <t>Percentage of inflammatory cells (non-tumor cells) showing marker staining relative to all inflammatory cells.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="H17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -294,11 +291,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Average intensity of tumor marker (0 - 3).</t>
+          <t>Area of PD-L1+ Inflammatory Cells over the area of TSI + IT as a percentage.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="I17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -307,11 +304,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Percentage of positive marker inflammation (0 - 100).</t>
+          <t>A semiquantitative approach used to assign score to tumor samples based on marker staining intensity (0, 1+, 2+, or 3+) for each cell in a fixed field.</t>
         </r>
       </text>
     </comment>
-    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="J17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -320,72 +317,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Average intensity of marker inflammation (0 - 3).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Indicates whether the marker is considered positive by FDA guidelines.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Percentage of tissue that is viable (0 - 100).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Percentage of tumor (0 - 100).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Degree of lymphoid infiltrate (0, 1, 2, or 3).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Percentage of fibrosis (0 - 100).</t>
+          <t>A text comment regarding this slide.</t>
         </r>
       </text>
     </comment>
@@ -394,7 +326,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="90">
   <si>
     <t>#t</t>
   </si>
@@ -411,9 +343,6 @@
     <t>Assay creator</t>
   </si>
   <si>
-    <t>Protocol name</t>
-  </si>
-  <si>
     <t>Slide scanner model</t>
   </si>
   <si>
@@ -453,9 +382,6 @@
     <t>Chromogenic IHC</t>
   </si>
   <si>
-    <t>H and E</t>
-  </si>
-  <si>
     <t>#h</t>
   </si>
   <si>
@@ -465,49 +391,157 @@
     <t>Cimac id</t>
   </si>
   <si>
-    <t>Slide number</t>
-  </si>
-  <si>
     <t>Ihc image</t>
   </si>
   <si>
-    <t>H and e image</t>
-  </si>
-  <si>
-    <t>Percentage tumor positive</t>
-  </si>
-  <si>
-    <t>Tumor positive intensity</t>
-  </si>
-  <si>
-    <t>Average tumor marker intensity</t>
-  </si>
-  <si>
-    <t>Percent inflammation marker positive</t>
-  </si>
-  <si>
-    <t>Average inflammation marker intensity</t>
-  </si>
-  <si>
-    <t>Clinically positive</t>
-  </si>
-  <si>
-    <t>Percentage viable tissue</t>
-  </si>
-  <si>
-    <t>Percentage tumor</t>
-  </si>
-  <si>
-    <t>Degree of lymphoid infiltrate</t>
-  </si>
-  <si>
-    <t>Percentage fibrosis</t>
+    <t>Marker positive</t>
+  </si>
+  <si>
+    <t>Tumor proportion score</t>
+  </si>
+  <si>
+    <t>Combined positive score</t>
+  </si>
+  <si>
+    <t>Inflammatory cells</t>
+  </si>
+  <si>
+    <t>Positive inflammatory cell area</t>
+  </si>
+  <si>
+    <t>H score</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>LEGEND</t>
+  </si>
+  <si>
+    <t>Legend for tab 'IHC'</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Trial identifier used by lead organization, ie. Center for Experimental Therapeutics Program (CTEP) ID or Industry Sponsored ID.  This is usually a short identifier. Example: E4412.</t>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <t>Indicates what site is filling out the assay.</t>
+  </si>
+  <si>
+    <t>E.g. 'DFCI'</t>
+  </si>
+  <si>
+    <t>Model version of the slide scanner instrument.</t>
+  </si>
+  <si>
+    <t>E.g. 'Vectra 2.0'</t>
+  </si>
+  <si>
+    <t>Staining platform used for tissue sample labeling.</t>
+  </si>
+  <si>
+    <t>E.g. 'auto'</t>
+  </si>
+  <si>
+    <t>Model version of the autostainer instrument.</t>
+  </si>
+  <si>
+    <t>E.g. 'Bond RX'</t>
+  </si>
+  <si>
+    <t>Antibody type collected for this study.</t>
+  </si>
+  <si>
+    <t>Company from which antibody sample was derived.</t>
+  </si>
+  <si>
+    <t>Resulting type of antibody clone from primary antibody sample.</t>
+  </si>
+  <si>
+    <t>Antibody registry catalog number assigned to antibody sample.</t>
+  </si>
+  <si>
+    <t>Identification number assigned to the particular quantity or lot of material from manufacturer.</t>
+  </si>
+  <si>
+    <t>Concentration ratio for antibody dilution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String: time </t>
+  </si>
+  <si>
+    <t>Time duration of antibody incubation.</t>
+  </si>
+  <si>
+    <t>Temperature used for antibody incubation.</t>
+  </si>
+  <si>
+    <t>Section 'Sample' of tab 'IHC'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String: regex ^C[A-Z0-9]{3}[A-Z0-9]{3}[A-Z0-9]{2}.[0-9]{2}$ </t>
+  </si>
+  <si>
+    <t>Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as C????????.??</t>
+  </si>
+  <si>
+    <t>E.g. 'CTTTP01A1.00'</t>
+  </si>
+  <si>
+    <t>Path to a file on a user's computer.</t>
+  </si>
+  <si>
+    <t>Section 'Chromogenic IHC' of tab 'IHC'</t>
+  </si>
+  <si>
+    <t>Indicates whether the marker is considered positive by clinical trial guidelines (if applicable).</t>
+  </si>
+  <si>
+    <t>E.g. 'positive'</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Tumor Proportion Score (TPS) is the percentage of viable tumor cells showing marker staining relative to all viable tumor cells.</t>
+  </si>
+  <si>
+    <t>Combined Positive Score (CPS) is the percentage of marker staining cells (tumor cells and cells that are non-tumor) relative to all viable tumor cells.</t>
+  </si>
+  <si>
+    <t>Percentage of inflammatory cells (non-tumor cells) showing marker staining relative to all inflammatory cells.</t>
+  </si>
+  <si>
+    <t>Area of PD-L1+ Inflammatory Cells over the area of TSI + IT as a percentage.</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>A semiquantitative approach used to assign score to tumor samples based on marker staining intensity (0, 1+, 2+, or 3+) for each cell in a fixed field.</t>
+  </si>
+  <si>
+    <t>A text comment regarding this slide.</t>
   </si>
   <si>
     <t>DFCI</t>
   </si>
   <si>
-    <t>ihc_test_trial_name</t>
+    <t>Mount Sinai</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>MD Anderson</t>
+  </si>
+  <si>
+    <t>Vectra 2.0</t>
   </si>
   <si>
     <t>Hamamatsu</t>
@@ -516,43 +550,58 @@
     <t>auto</t>
   </si>
   <si>
-    <t>Leica Bond RX</t>
-  </si>
-  <si>
-    <t>PD-L1</t>
-  </si>
-  <si>
-    <t>Cell Signaling</t>
-  </si>
-  <si>
-    <t>E1L3N</t>
-  </si>
-  <si>
-    <t>1:200</t>
-  </si>
-  <si>
-    <t>1 hr</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>/path/to/ihc.tiff</t>
-  </si>
-  <si>
-    <t>/path/to/hande.tiff</t>
-  </si>
-  <si>
-    <t>CTTTP01A1.00</t>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>Bond RX</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>no_call</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>ABX.123</t>
+  </si>
+  <si>
+    <t>#12345</t>
+  </si>
+  <si>
+    <t>100:5</t>
+  </si>
+  <si>
+    <t>54c</t>
+  </si>
+  <si>
+    <t>CTTTPP111.00</t>
+  </si>
+  <si>
+    <t>CTTTPP121.00</t>
   </si>
   <si>
     <t>test_prism_trial_id</t>
+  </si>
+  <si>
+    <t>path/to/image1.tiff</t>
+  </si>
+  <si>
+    <t>path/to/image2.tiff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -582,7 +631,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -604,6 +653,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5FA3F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,16 +701,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -670,9 +734,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -724,9 +785,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -754,31 +815,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -806,23 +850,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -998,1492 +1025,1746 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O218"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" hidden="1" customWidth="1"/>
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-    </row>
-    <row r="2" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1">
-        <v>13684</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1">
-        <v>547645</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="C12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="C13" s="6">
+        <v>0.28125</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="C14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="3">
-        <v>80</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="I19" s="3">
-        <v>80</v>
-      </c>
-      <c r="J19" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1</v>
-      </c>
-      <c r="L19" s="3">
-        <v>80</v>
-      </c>
-      <c r="M19" s="3">
-        <v>80</v>
-      </c>
-      <c r="N19" s="3">
-        <v>1</v>
-      </c>
-      <c r="O19" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="L17:O17"/>
+  <mergeCells count="3">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:J16"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>"DFCI,Mount Sinai,Stanford,MD Anderson"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
       <formula1>"Vectra 2.0,Hamamatsu"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{59F64D02-2A1C-0B40-8DAA-39F5C9D9DD3D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
       <formula1>"auto,manual"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+      <formula1>"Bond RX,N/A"</formula1>
+    </dataValidation>
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="C13">
+      <formula1>0</formula1>
+      <formula2>0.999305555555555</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18:D217">
+      <formula1>"positive,negative,no_call"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="101" width="30.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="101" width="30.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/template_examples/ihc_template.xlsx
+++ b/template_examples/ihc_template.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlindsay/Documents/Code/cidc/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9A84A3-8316-6042-9F65-57B64AF4BAF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="37300" windowHeight="19320"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IHC" sheetId="1" r:id="rId1"/>
     <sheet name="Legend" sheetId="2" r:id="rId2"/>
     <sheet name="Data Dictionary" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>CIDC</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -125,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -138,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -151,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -164,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -177,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -190,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -203,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0">
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -216,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0">
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -230,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D17" authorId="0">
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -243,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="0">
+    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -256,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F17" authorId="0">
+    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -269,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="0">
+    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -282,7 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H17" authorId="0">
+    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -295,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0">
+    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -308,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J17" authorId="0">
+    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -592,16 +593,16 @@
     <t>test_prism_trial_id</t>
   </si>
   <si>
-    <t>path/to/image1.tiff</t>
-  </si>
-  <si>
-    <t>path/to/image2.tiff</t>
+    <t>path/to/image1.qptiff</t>
+  </si>
+  <si>
+    <t>path/to/image2.qptiff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -734,6 +735,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1025,11 +1029,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1054,7 +1058,7 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1072,7 +1076,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1090,7 +1094,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1108,7 +1112,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1126,7 +1130,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1144,7 +1148,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1162,7 +1166,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1180,7 +1184,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1198,7 +1202,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1216,7 +1220,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1234,7 +1238,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1252,7 +1256,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1270,7 +1274,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -2366,23 +2370,23 @@
     <mergeCell ref="D16:J16"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"DFCI,Mount Sinai,Stanford,MD Anderson"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Vectra 2.0,Hamamatsu"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"auto,manual"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Bond RX,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="C13">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="C13" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>0</formula1>
       <formula2>0.999305555555555</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18:D217">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18:D217" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"positive,negative,no_call"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2392,7 +2396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2402,17 +2406,17 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2423,7 +2427,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2437,7 +2441,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2451,7 +2455,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2465,7 +2469,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2479,7 +2483,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2490,7 +2494,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
@@ -2501,7 +2505,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -2512,7 +2516,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -2523,7 +2527,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -2534,7 +2538,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
@@ -2545,7 +2549,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
@@ -2556,7 +2560,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
@@ -2567,7 +2571,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>51</v>
       </c>
@@ -2597,7 +2601,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
@@ -2689,7 +2693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2699,7 +2703,7 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>

--- a/template_examples/ihc_template.xlsx
+++ b/template_examples/ihc_template.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9A84A3-8316-6042-9F65-57B64AF4BAF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0499EA95-E7A4-A242-84A8-D2C12EA43CD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IHC" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,6 @@
     <sheet name="Data Dictionary" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -240,7 +232,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Indicates whether the marker is considered positive by clinical trial guidelines (if applicable).</t>
+          <t>Path to a file on a user's computer.
+In .svs format</t>
         </r>
       </text>
     </comment>
@@ -253,7 +246,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Tumor Proportion Score (TPS) is the percentage of viable tumor cells showing marker staining relative to all viable tumor cells.</t>
+          <t>Path to a file on a user's computer.
+In .qptiff format</t>
         </r>
       </text>
     </comment>
@@ -266,7 +260,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Combined Positive Score (CPS) is the percentage of marker staining cells (tumor cells and cells that are non-tumor) relative to all viable tumor cells.</t>
+          <t>Indicates whether the marker is considered positive by clinical trial guidelines (if applicable).</t>
         </r>
       </text>
     </comment>
@@ -279,7 +273,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Percentage of inflammatory cells (non-tumor cells) showing marker staining relative to all inflammatory cells.</t>
+          <t>Tumor Proportion Score (TPS) is the percentage of viable tumor cells showing marker staining relative to all viable tumor cells.</t>
         </r>
       </text>
     </comment>
@@ -292,7 +286,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Area of PD-L1+ Inflammatory Cells over the area of TSI + IT as a percentage.</t>
+          <t>Combined Positive Score (CPS) is the percentage of marker staining cells (tumor cells and cells that are non-tumor) relative to all viable tumor cells.</t>
         </r>
       </text>
     </comment>
@@ -305,11 +299,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Percentage of inflammatory cells (non-tumor cells) showing marker staining relative to all inflammatory cells.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Area of PD-L1+ Inflammatory Cells over the area of TSI + IT as a percentage.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>A semiquantitative approach used to assign score to tumor samples based on marker staining intensity (0, 1+, 2+, or 3+) for each cell in a fixed field.</t>
         </r>
       </text>
     </comment>
-    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="L17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -327,7 +347,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="94">
   <si>
     <t>#t</t>
   </si>
@@ -380,7 +400,7 @@
     <t>Sample</t>
   </si>
   <si>
-    <t>Chromogenic IHC</t>
+    <t>Chromogenic IHC (please specify one score/metric)</t>
   </si>
   <si>
     <t>#h</t>
@@ -392,7 +412,13 @@
     <t>Cimac id</t>
   </si>
   <si>
-    <t>Ihc image</t>
+    <t>Ihc image (tiff)</t>
+  </si>
+  <si>
+    <t>Ihc image (svs)</t>
+  </si>
+  <si>
+    <t>Ihc image (qptiff)</t>
   </si>
   <si>
     <t>Marker positive</t>
@@ -497,7 +523,7 @@
     <t>Path to a file on a user's computer.</t>
   </si>
   <si>
-    <t>Section 'Chromogenic IHC' of tab 'IHC'</t>
+    <t>Section 'Chromogenic IHC (please specify one score/metric)' of tab 'IHC'</t>
   </si>
   <si>
     <t>Indicates whether the marker is considered positive by clinical trial guidelines (if applicable).</t>
@@ -569,6 +595,9 @@
     <t>no_call</t>
   </si>
   <si>
+    <t>test_prism_trial_id</t>
+  </si>
+  <si>
     <t>XYZ</t>
   </si>
   <si>
@@ -578,9 +607,6 @@
     <t>#12345</t>
   </si>
   <si>
-    <t>100:5</t>
-  </si>
-  <si>
     <t>54c</t>
   </si>
   <si>
@@ -590,20 +616,26 @@
     <t>CTTTPP121.00</t>
   </si>
   <si>
-    <t>test_prism_trial_id</t>
+    <t>path/to/image1.tiff</t>
+  </si>
+  <si>
+    <t>path/to/image2.tiff</t>
+  </si>
+  <si>
+    <t>path/to/image1.svs</t>
+  </si>
+  <si>
+    <t>path/to/image2.svs</t>
   </si>
   <si>
     <t>path/to/image1.qptiff</t>
-  </si>
-  <si>
-    <t>path/to/image2.qptiff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,6 +662,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -702,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -716,7 +755,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -726,6 +765,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,9 +829,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -819,14 +859,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -854,6 +911,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1030,19 +1104,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J217"/>
+  <dimension ref="A1:L217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1057,8 +1131,10 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
-    </row>
-    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1066,7 +1142,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1075,8 +1151,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1084,7 +1162,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1093,8 +1171,10 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1102,7 +1182,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1111,8 +1191,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1120,7 +1202,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1129,8 +1211,10 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1138,7 +1222,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1147,8 +1231,10 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1156,7 +1242,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1165,8 +1251,10 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1174,7 +1262,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1183,8 +1271,10 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1192,7 +1282,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1201,8 +1291,10 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1210,7 +1302,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1219,8 +1311,10 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1228,7 +1322,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1237,16 +1331,18 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>83</v>
+      <c r="C12" s="5">
+        <v>4.1701388888888884</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1255,8 +1351,10 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1273,8 +1371,10 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1282,7 +1382,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1291,23 +1391,27 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1338,102 +1442,120 @@
       <c r="J17" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="C19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19">
+        <v>90</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19">
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -2365,9 +2487,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:L16"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -2386,7 +2508,7 @@
       <formula1>0</formula1>
       <formula2>0.999305555555555</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18:D217" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:F217" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"positive,negative,no_call"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2397,7 +2519,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:E26"/>
+  <dimension ref="B1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2408,12 +2530,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2421,10 +2543,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2432,13 +2554,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2446,13 +2568,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2460,13 +2582,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2474,13 +2596,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2488,10 +2610,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2499,10 +2621,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2510,10 +2632,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2521,10 +2643,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2532,10 +2654,10 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2543,10 +2665,10 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2554,10 +2676,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2565,15 +2687,15 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -2581,13 +2703,13 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -2595,20 +2717,26 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
@@ -2616,19 +2744,10 @@
       <c r="D20" t="s">
         <v>57</v>
       </c>
-      <c r="E20" t="s">
+    </row>
+    <row r="21" spans="2:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
@@ -2636,10 +2755,13 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
         <v>59</v>
       </c>
-      <c r="D22" t="s">
-        <v>61</v>
+      <c r="E22" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
@@ -2647,7 +2769,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
         <v>62</v>
@@ -2658,7 +2780,7 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
         <v>63</v>
@@ -2669,10 +2791,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
         <v>64</v>
-      </c>
-      <c r="D25" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
@@ -2680,10 +2802,32 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
         <v>66</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2717,54 +2861,54 @@
         <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/template_examples/ihc_template.xlsx
+++ b/template_examples/ihc_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0499EA95-E7A4-A242-84A8-D2C12EA43CD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15724E73-62F4-1A43-95F0-33B0CD9630E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,12 +214,21 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Path to a file on a user's computer.
-In .tiff format</t>
+          <t xml:space="preserve">Path to a file on a user's computer.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>In .tiff format</t>
         </r>
       </text>
     </comment>
@@ -347,7 +356,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="91">
   <si>
     <t>#t</t>
   </si>
@@ -620,22 +629,13 @@
   </si>
   <si>
     <t>path/to/image2.tiff</t>
-  </si>
-  <si>
-    <t>path/to/image1.svs</t>
-  </si>
-  <si>
-    <t>path/to/image2.svs</t>
-  </si>
-  <si>
-    <t>path/to/image1.qptiff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,6 +669,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -762,10 +768,10 @@
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1106,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1120,19 +1126,19 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1395,21 +1401,21 @@
       <c r="L14" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1459,12 +1465,7 @@
       <c r="C18" t="s">
         <v>89</v>
       </c>
-      <c r="D18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>93</v>
-      </c>
+      <c r="E18" s="8"/>
       <c r="F18" t="s">
         <v>79</v>
       </c>
@@ -1482,12 +1483,8 @@
       <c r="C19" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>93</v>
-      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
       <c r="F19" t="s">
         <v>81</v>
       </c>

--- a/template_examples/ihc_template.xlsx
+++ b/template_examples/ihc_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15724E73-62F4-1A43-95F0-33B0CD9630E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA9FEE6-FB12-0A4E-8DAD-3473FE86D2DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,6 +214,20 @@
         <r>
           <rPr>
             <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Path to a file on a user's computer.
+In .tiff format</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -228,21 +242,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>In .tiff format</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Path to a file on a user's computer.
-In .svs format</t>
+          <t>In .svs format</t>
         </r>
       </text>
     </comment>
@@ -251,12 +251,21 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Path to a file on a user's computer.
-In .qptiff format</t>
+          <t xml:space="preserve">Path to a file on a user's computer.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>In .qptiff format</t>
         </r>
       </text>
     </comment>
@@ -421,13 +430,13 @@
     <t>Cimac id</t>
   </si>
   <si>
-    <t>Ihc image (tiff)</t>
-  </si>
-  <si>
-    <t>Ihc image (svs)</t>
-  </si>
-  <si>
-    <t>Ihc image (qptiff)</t>
+    <t>Ihc image (.tiff)</t>
+  </si>
+  <si>
+    <t>Ihc image (.svs)</t>
+  </si>
+  <si>
+    <t>Ihc image (.qptiff)</t>
   </si>
   <si>
     <t>Marker positive</t>
@@ -635,7 +644,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,13 +671,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -747,7 +749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -768,7 +770,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1112,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1126,19 +1127,19 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1401,21 +1402,21 @@
       <c r="L14" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1465,7 +1466,6 @@
       <c r="C18" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="8"/>
       <c r="F18" t="s">
         <v>79</v>
       </c>
@@ -1483,8 +1483,6 @@
       <c r="C19" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
       <c r="F19" t="s">
         <v>81</v>
       </c>

--- a/template_examples/ihc_template.xlsx
+++ b/template_examples/ihc_template.xlsx
@@ -1,40 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27417"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlindsay/Documents/Code/cidc/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65B9BE3-8C11-0D42-94A7-829A65906D99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="37300" windowHeight="19320"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IHC" sheetId="1" r:id="rId1"/>
     <sheet name="Legend" sheetId="2" r:id="rId2"/>
     <sheet name="Data Dictionary" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>CIDC</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -125,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -138,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -151,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -164,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -177,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -190,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -203,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0">
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -216,21 +209,30 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0">
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Path to a file on a user's computer.
-In .tiff format</t>
+          <t xml:space="preserve">Path to a file on a user's computer.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>In one of .tiff .tif .qptiff .svs formats.</t>
         </r>
       </text>
     </comment>
-    <comment ref="D17" authorId="0">
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -243,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="0">
+    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -256,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F17" authorId="0">
+    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -269,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="0">
+    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -282,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H17" authorId="0">
+    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -295,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0">
+    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -308,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J17" authorId="0">
+    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -379,7 +381,7 @@
     <t>Sample</t>
   </si>
   <si>
-    <t>Chromogenic IHC</t>
+    <t>Chromogenic IHC (please specify one score/metric)</t>
   </si>
   <si>
     <t>#h</t>
@@ -496,7 +498,7 @@
     <t>Path to a file on a user's computer.</t>
   </si>
   <si>
-    <t>Section 'Chromogenic IHC' of tab 'IHC'</t>
+    <t>Section 'Chromogenic IHC (please specify one score/metric)' of tab 'IHC'</t>
   </si>
   <si>
     <t>Indicates whether the marker is considered positive by clinical trial guidelines (if applicable).</t>
@@ -568,6 +570,9 @@
     <t>no_call</t>
   </si>
   <si>
+    <t>test_prism_trial_id</t>
+  </si>
+  <si>
     <t>XYZ</t>
   </si>
   <si>
@@ -587,9 +592,6 @@
   </si>
   <si>
     <t>CTTTPP121.00</t>
-  </si>
-  <si>
-    <t>test_prism_trial_id</t>
   </si>
   <si>
     <t>path/to/image1.tiff</t>
@@ -601,8 +603,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -626,8 +628,20 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -701,7 +715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -721,10 +735,11 @@
     <xf numFmtId="20" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,6 +749,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -785,9 +803,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -815,14 +833,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -850,6 +885,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1025,16 +1077,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1054,7 +1106,7 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1062,7 +1114,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1072,7 +1124,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1090,7 +1142,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1108,7 +1160,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1126,7 +1178,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1144,7 +1196,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1152,7 +1204,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1162,7 +1214,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1170,7 +1222,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1180,7 +1232,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1188,7 +1240,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1198,7 +1250,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1206,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1216,7 +1268,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1224,7 +1276,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1234,7 +1286,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1242,7 +1294,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1252,7 +1304,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1270,7 +1322,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1278,7 +1330,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1335,14 +1387,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>88</v>
       </c>
       <c r="D18" t="s">
@@ -1352,14 +1404,14 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D19" t="s">
@@ -2366,23 +2418,23 @@
     <mergeCell ref="D16:J16"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{494E7B06-FB9A-504A-A99D-B0408E5D766E}">
       <formula1>"DFCI,Mount Sinai,Stanford,MD Anderson"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{9ACAF3E1-D7D7-4F4B-9A60-29505F0A5F16}">
       <formula1>"Vectra 2.0,Hamamatsu"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{7E93CA9A-6A48-1D4F-8557-D0C621B0C002}">
       <formula1>"auto,manual"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{E3A63A64-A67E-4841-86AA-4AD5C490F362}">
       <formula1>"Bond RX,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="C13">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="C13" xr:uid="{97101EE6-FE54-864D-A608-76AEB94FB72F}">
       <formula1>0</formula1>
       <formula2>0.999305555555555</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18:D217">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18:D217" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"positive,negative,no_call"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2392,7 +2444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2402,17 +2454,17 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2423,7 +2475,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2437,7 +2489,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2451,7 +2503,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2465,7 +2517,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2479,7 +2531,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2490,7 +2542,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
@@ -2501,7 +2553,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -2512,7 +2564,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -2523,7 +2575,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -2534,7 +2586,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
@@ -2545,7 +2597,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
@@ -2556,7 +2608,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
@@ -2567,7 +2619,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>51</v>
       </c>
@@ -2597,7 +2649,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
@@ -2689,7 +2741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2699,7 +2751,7 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>

--- a/template_examples/ihc_template.xlsx
+++ b/template_examples/ihc_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65B9BE3-8C11-0D42-94A7-829A65906D99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D2EF0E-A1DB-C64A-B93D-00089FD5759A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IHC" sheetId="1" r:id="rId1"/>
@@ -214,21 +214,12 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Path to a file on a user's computer.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>In one of .tiff .tif .qptiff .svs formats.</t>
+          <t>Path to a file on a user's computer.
+In one of .tiff .tif .qptiff .svs formats.</t>
         </r>
       </text>
     </comment>
@@ -328,7 +319,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="89">
   <si>
     <t>#t</t>
   </si>
@@ -582,9 +573,6 @@
     <t>#12345</t>
   </si>
   <si>
-    <t>100:5</t>
-  </si>
-  <si>
     <t>54c</t>
   </si>
   <si>
@@ -594,17 +582,17 @@
     <t>CTTTPP121.00</t>
   </si>
   <si>
-    <t>path/to/image1.tiff</t>
-  </si>
-  <si>
-    <t>path/to/image2.tiff</t>
+    <t>path/to/image1.tif</t>
+  </si>
+  <si>
+    <t>path/to/image2.tif</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,24 +612,6 @@
       <sz val="10"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -715,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -729,17 +699,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1080,7 +1048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -1090,23 +1058,23 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1124,7 +1092,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1142,7 +1110,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1160,7 +1128,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1178,7 +1146,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1196,7 +1164,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1214,7 +1182,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1232,7 +1200,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1250,7 +1218,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1268,7 +1236,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1286,15 +1254,15 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>84</v>
+      <c r="C12" s="5">
+        <v>4.1701388888888884</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1304,7 +1272,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1322,7 +1290,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1330,7 +1298,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1341,19 +1309,19 @@
       <c r="J14" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1387,15 +1355,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>88</v>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
       </c>
       <c r="D18" t="s">
         <v>77</v>
@@ -1404,15 +1372,15 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>89</v>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
       </c>
       <c r="D19" t="s">
         <v>79</v>
@@ -2418,19 +2386,19 @@
     <mergeCell ref="D16:J16"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{494E7B06-FB9A-504A-A99D-B0408E5D766E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"DFCI,Mount Sinai,Stanford,MD Anderson"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{9ACAF3E1-D7D7-4F4B-9A60-29505F0A5F16}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Vectra 2.0,Hamamatsu"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{7E93CA9A-6A48-1D4F-8557-D0C621B0C002}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"auto,manual"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{E3A63A64-A67E-4841-86AA-4AD5C490F362}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Bond RX,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="C13" xr:uid="{97101EE6-FE54-864D-A608-76AEB94FB72F}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="C13" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>0</formula1>
       <formula2>0.999305555555555</formula2>
     </dataValidation>

--- a/template_examples/ihc_template.xlsx
+++ b/template_examples/ihc_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D2EF0E-A1DB-C64A-B93D-00089FD5759A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFF007A-5891-684D-AFA9-DAC92C771A30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -319,7 +319,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="93">
   <si>
     <t>#t</t>
   </si>
@@ -585,7 +585,19 @@
     <t>path/to/image1.tif</t>
   </si>
   <si>
-    <t>path/to/image2.tif</t>
+    <t>CTTTPP122.00</t>
+  </si>
+  <si>
+    <t>path/to/image2.tiff</t>
+  </si>
+  <si>
+    <t>CTTTPP123.00</t>
+  </si>
+  <si>
+    <t>path/to/image3.svs</t>
+  </si>
+  <si>
+    <t>path/to/image4.qptiff</t>
   </si>
 </sst>
 </file>
@@ -1048,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1380,7 +1392,7 @@
         <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
         <v>79</v>
@@ -1393,10 +1405,34 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21">
+        <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">

--- a/template_examples/ihc_template.xlsx
+++ b/template_examples/ihc_template.xlsx
@@ -1,40 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27417"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlindsay/Documents/Code/cidc/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFF007A-5891-684D-AFA9-DAC92C771A30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="37300" windowHeight="19320"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IHC" sheetId="1" r:id="rId1"/>
     <sheet name="Legend" sheetId="2" r:id="rId2"/>
     <sheet name="Data Dictionary" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>CIDC</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -125,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -138,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -151,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -164,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -177,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -190,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -203,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0">
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -216,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="0">
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -226,11 +219,11 @@
             <family val="2"/>
           </rPr>
           <t>Path to a file on a user's computer.
-In .tiff format</t>
+In one of .tiff .tif .qptiff .svs formats.</t>
         </r>
       </text>
     </comment>
-    <comment ref="D17" authorId="0">
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -243,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="0">
+    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -256,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F17" authorId="0">
+    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -269,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="0">
+    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -282,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H17" authorId="0">
+    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -295,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0">
+    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -308,7 +301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J17" authorId="0">
+    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -326,7 +319,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="93">
   <si>
     <t>#t</t>
   </si>
@@ -379,7 +372,7 @@
     <t>Sample</t>
   </si>
   <si>
-    <t>Chromogenic IHC</t>
+    <t>Chromogenic IHC (please specify one score/metric)</t>
   </si>
   <si>
     <t>#h</t>
@@ -496,7 +489,7 @@
     <t>Path to a file on a user's computer.</t>
   </si>
   <si>
-    <t>Section 'Chromogenic IHC' of tab 'IHC'</t>
+    <t>Section 'Chromogenic IHC (please specify one score/metric)' of tab 'IHC'</t>
   </si>
   <si>
     <t>Indicates whether the marker is considered positive by clinical trial guidelines (if applicable).</t>
@@ -568,6 +561,9 @@
     <t>no_call</t>
   </si>
   <si>
+    <t>test_prism_trial_id</t>
+  </si>
+  <si>
     <t>XYZ</t>
   </si>
   <si>
@@ -577,9 +573,6 @@
     <t>#12345</t>
   </si>
   <si>
-    <t>100:5</t>
-  </si>
-  <si>
     <t>54c</t>
   </si>
   <si>
@@ -589,20 +582,29 @@
     <t>CTTTPP121.00</t>
   </si>
   <si>
-    <t>test_prism_trial_id</t>
-  </si>
-  <si>
-    <t>path/to/image1.tiff</t>
+    <t>path/to/image1.tif</t>
+  </si>
+  <si>
+    <t>CTTTPP122.00</t>
   </si>
   <si>
     <t>path/to/image2.tiff</t>
+  </si>
+  <si>
+    <t>CTTTPP123.00</t>
+  </si>
+  <si>
+    <t>path/to/image3.svs</t>
+  </si>
+  <si>
+    <t>path/to/image4.qptiff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,12 +624,6 @@
       <sz val="10"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -701,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -715,13 +711,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -734,6 +729,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -785,9 +783,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -815,14 +813,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -850,6 +865,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1025,36 +1057,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1062,7 +1094,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1072,7 +1104,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1090,7 +1122,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1108,7 +1140,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1126,7 +1158,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1144,7 +1176,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1152,7 +1184,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1162,7 +1194,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1170,7 +1202,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1180,7 +1212,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1188,7 +1220,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1198,7 +1230,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1206,7 +1238,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1216,7 +1248,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1224,7 +1256,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1234,15 +1266,15 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>83</v>
+      <c r="C12" s="5">
+        <v>4.1701388888888884</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1252,7 +1284,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1270,7 +1302,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1289,19 +1321,19 @@
       <c r="J14" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1339,11 +1371,11 @@
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" t="s">
         <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
         <v>77</v>
@@ -1356,7 +1388,7 @@
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" t="s">
         <v>86</v>
       </c>
       <c r="C19" t="s">
@@ -1373,10 +1405,34 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21">
+        <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -2366,23 +2422,23 @@
     <mergeCell ref="D16:J16"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"DFCI,Mount Sinai,Stanford,MD Anderson"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Vectra 2.0,Hamamatsu"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"auto,manual"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Bond RX,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="C13">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="C13" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>0</formula1>
       <formula2>0.999305555555555</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18:D217">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18:D217" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"positive,negative,no_call"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2392,7 +2448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2402,17 +2458,17 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2423,7 +2479,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2437,7 +2493,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2451,7 +2507,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2465,7 +2521,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2479,7 +2535,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2490,7 +2546,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
@@ -2501,7 +2557,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -2512,7 +2568,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -2523,7 +2579,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -2534,7 +2590,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
@@ -2545,7 +2601,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
@@ -2556,7 +2612,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
@@ -2567,7 +2623,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>51</v>
       </c>
@@ -2597,7 +2653,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
@@ -2689,7 +2745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2699,7 +2755,7 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>

--- a/template_examples/ihc_template.xlsx
+++ b/template_examples/ihc_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFF007A-5891-684D-AFA9-DAC92C771A30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DCF029-A608-6447-BF26-8458B3409680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Legend" sheetId="2" r:id="rId2"/>
     <sheet name="Data Dictionary" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -245,7 +245,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Tumor Proportion Score (TPS) is the percentage of viable tumor cells showing marker staining relative to all viable tumor cells.</t>
+          <t>Tumor Proportion Score (TPS) is the percentage of viable tumor cells showing marker staining relative to all viable tumor cells. (0-1)</t>
         </r>
       </text>
     </comment>
@@ -258,7 +258,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Combined Positive Score (CPS) is the percentage of marker staining cells (tumor cells and cells that are non-tumor) relative to all viable tumor cells.</t>
+          <t>Combined Positive Score (CPS) is the percentage of marker staining cells (tumor cells and cells that are non-tumor) relative to all viable tumor cells. (0-1)</t>
         </r>
       </text>
     </comment>
@@ -271,7 +271,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Percentage of inflammatory cells (non-tumor cells) showing marker staining relative to all inflammatory cells.</t>
+          <t>Percentage of inflammatory cells (non-tumor cells) showing marker staining relative to all inflammatory cells. (0-1)</t>
         </r>
       </text>
     </comment>
@@ -284,7 +284,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Area of PD-L1+ Inflammatory Cells over the area of TSI + IT as a percentage.</t>
+          <t>Area of PD-L1+ Inflammatory Cells over the area of TSI + IT as a percentage. (0-1)</t>
         </r>
       </text>
     </comment>
@@ -297,11 +297,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>A semiquantitative approach used to assign score to tumor samples based on marker staining intensity (0, 1+, 2+, or 3+) for each cell in a fixed field.</t>
+          <t>A measure of the intensity or brightness of the protein. (0-3)</t>
         </r>
       </text>
     </comment>
     <comment ref="J17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>A percentage of the relevant cells considered positive. (0-100)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>A summation of the percentage of area stained at each intensity level multiplied by the weighted intensity. (0-300)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -319,7 +345,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="97">
   <si>
     <t>#t</t>
   </si>
@@ -402,6 +428,12 @@
     <t>Positive inflammatory cell area</t>
   </si>
   <si>
+    <t>Intensity</t>
+  </si>
+  <si>
+    <t>% expression</t>
+  </si>
+  <si>
     <t>H score</t>
   </si>
   <si>
@@ -501,22 +533,28 @@
     <t>Number</t>
   </si>
   <si>
-    <t>Tumor Proportion Score (TPS) is the percentage of viable tumor cells showing marker staining relative to all viable tumor cells.</t>
-  </si>
-  <si>
-    <t>Combined Positive Score (CPS) is the percentage of marker staining cells (tumor cells and cells that are non-tumor) relative to all viable tumor cells.</t>
-  </si>
-  <si>
-    <t>Percentage of inflammatory cells (non-tumor cells) showing marker staining relative to all inflammatory cells.</t>
-  </si>
-  <si>
-    <t>Area of PD-L1+ Inflammatory Cells over the area of TSI + IT as a percentage.</t>
+    <t>Tumor Proportion Score (TPS) is the percentage of viable tumor cells showing marker staining relative to all viable tumor cells. (0-1)</t>
+  </si>
+  <si>
+    <t>Combined Positive Score (CPS) is the percentage of marker staining cells (tumor cells and cells that are non-tumor) relative to all viable tumor cells. (0-1)</t>
+  </si>
+  <si>
+    <t>Percentage of inflammatory cells (non-tumor cells) showing marker staining relative to all inflammatory cells. (0-1)</t>
+  </si>
+  <si>
+    <t>Area of PD-L1+ Inflammatory Cells over the area of TSI + IT as a percentage. (0-1)</t>
+  </si>
+  <si>
+    <t>A measure of the intensity or brightness of the protein. (0-3)</t>
+  </si>
+  <si>
+    <t>A percentage of the relevant cells considered positive. (0-100)</t>
   </si>
   <si>
     <t>Integer</t>
   </si>
   <si>
-    <t>A semiquantitative approach used to assign score to tumor samples based on marker staining intensity (0, 1+, 2+, or 3+) for each cell in a fixed field.</t>
+    <t>A summation of the percentage of area stained at each intensity level multiplied by the weighted intensity. (0-300)</t>
   </si>
   <si>
     <t>A text comment regarding this slide.</t>
@@ -579,22 +617,22 @@
     <t>CTTTPP111.00</t>
   </si>
   <si>
+    <t>path/to/image1.tif</t>
+  </si>
+  <si>
     <t>CTTTPP121.00</t>
   </si>
   <si>
-    <t>path/to/image1.tif</t>
+    <t>path/to/image2.tiff</t>
   </si>
   <si>
     <t>CTTTPP122.00</t>
   </si>
   <si>
-    <t>path/to/image2.tiff</t>
+    <t>path/to/image3.svs</t>
   </si>
   <si>
     <t>CTTTPP123.00</t>
-  </si>
-  <si>
-    <t>path/to/image3.svs</t>
   </si>
   <si>
     <t>path/to/image4.qptiff</t>
@@ -604,7 +642,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,6 +663,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -697,7 +742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -711,15 +756,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="46" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1058,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J217"/>
+  <dimension ref="A1:L217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1070,23 +1116,25 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1094,7 +1142,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1103,8 +1151,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1112,7 +1162,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1121,8 +1171,10 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1130,7 +1182,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1139,8 +1191,10 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1148,7 +1202,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1157,8 +1211,10 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1166,7 +1222,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1175,8 +1231,10 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1184,7 +1242,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1193,8 +1251,10 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1202,7 +1262,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1211,8 +1271,10 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1220,7 +1282,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1229,8 +1291,10 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1238,7 +1302,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1247,8 +1311,10 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1256,7 +1322,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1265,15 +1331,17 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="6">
         <v>4.1701388888888884</v>
       </c>
       <c r="D12" s="2"/>
@@ -1283,15 +1351,17 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="7">
         <v>0.28125</v>
       </c>
       <c r="D13" s="2"/>
@@ -1301,8 +1371,10 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1310,7 +1382,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1319,23 +1391,27 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="7" t="s">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1366,126 +1442,180 @@
       <c r="J17" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18">
+      <c r="B18" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="8">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19">
+      <c r="B19" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="8">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8">
+        <v>1</v>
+      </c>
+      <c r="J19" s="8">
+        <v>10</v>
+      </c>
+      <c r="K19">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20">
+      <c r="B20" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="8">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8">
+        <v>2</v>
+      </c>
+      <c r="J20" s="8">
+        <v>40</v>
+      </c>
+      <c r="K20">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21">
+      <c r="B21" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="8">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8">
+        <v>3</v>
+      </c>
+      <c r="J21" s="8">
+        <v>100</v>
+      </c>
+      <c r="K21">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -2417,28 +2547,28 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B1:L1"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D16:L16"/>
   </mergeCells>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations disablePrompts="1" count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{06A8DF5B-32CB-064A-A97D-2B9E89AE8172}">
       <formula1>"DFCI,Mount Sinai,Stanford,MD Anderson"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{B7198C28-CA0E-2E4B-8A2D-85AE4EFC8C2A}">
       <formula1>"Vectra 2.0,Hamamatsu"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{C844F8AF-CE33-3847-BB83-FF4A3B4EF3E2}">
       <formula1>"auto,manual"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{6D155AAA-6FFE-BF4F-BD65-58F04B8F16A4}">
       <formula1>"Bond RX,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="C13" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="C13" xr:uid="{98E2AE1D-213F-624A-9859-3797A7B1A639}">
       <formula1>0</formula1>
       <formula2>0.999305555555555</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18:D217" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22:D217" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"positive,negative,no_call"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2449,7 +2579,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:E26"/>
+  <dimension ref="B1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2460,12 +2590,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2473,10 +2603,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2484,13 +2614,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2498,13 +2628,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2512,13 +2642,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2526,13 +2656,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2540,10 +2670,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2551,10 +2681,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2562,10 +2692,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2573,10 +2703,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2584,10 +2714,10 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2595,10 +2725,10 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2606,10 +2736,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="16" x14ac:dyDescent="0.2">
@@ -2617,15 +2747,15 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -2633,13 +2763,13 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -2647,15 +2777,15 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
@@ -2663,13 +2793,13 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
@@ -2677,10 +2807,10 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
@@ -2688,10 +2818,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
@@ -2699,10 +2829,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
@@ -2710,10 +2840,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
@@ -2721,10 +2851,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
@@ -2732,10 +2862,32 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2774,49 +2926,49 @@
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/template_examples/ihc_template.xlsx
+++ b/template_examples/ihc_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DCF029-A608-6447-BF26-8458B3409680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B238A7-D4AB-F440-AE2D-76C08FEC2BB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="4900" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IHC" sheetId="1" r:id="rId1"/>
@@ -201,7 +201,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -345,7 +345,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="98">
   <si>
     <t>#t</t>
   </si>
@@ -570,6 +570,9 @@
   </si>
   <si>
     <t>MD Anderson</t>
+  </si>
+  <si>
+    <t>DFCI-Severgnini</t>
   </si>
   <si>
     <t>Vectra 2.0</t>
@@ -665,11 +668,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -742,7 +744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -765,7 +767,6 @@
     <xf numFmtId="20" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1106,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1142,7 +1143,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1182,7 +1183,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1202,7 +1203,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1222,7 +1223,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1242,7 +1243,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1262,7 +1263,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1282,7 +1283,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1302,7 +1303,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1322,7 +1323,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1382,7 +1383,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1453,25 +1454,22 @@
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="B18" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="8">
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18">
         <v>0.67</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8">
+      <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
@@ -1482,25 +1480,22 @@
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="B19" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19">
         <v>0.1</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8">
+      <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19">
         <v>10</v>
       </c>
       <c r="K19">
@@ -1511,25 +1506,22 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="B20" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="8">
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20">
         <v>0.1</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8">
+      <c r="I20">
         <v>2</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20">
         <v>40</v>
       </c>
       <c r="K20">
@@ -1540,25 +1532,22 @@
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="B21" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="8">
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21">
         <v>0.2</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8">
+      <c r="I21">
         <v>3</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21">
         <v>100</v>
       </c>
       <c r="K21">
@@ -2551,25 +2540,25 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:L16"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{06A8DF5B-32CB-064A-A97D-2B9E89AE8172}">
-      <formula1>"DFCI,Mount Sinai,Stanford,MD Anderson"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{B7198C28-CA0E-2E4B-8A2D-85AE4EFC8C2A}">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{05F26F75-56B1-284E-AE31-789AEDA5907A}">
       <formula1>"Vectra 2.0,Hamamatsu"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{C844F8AF-CE33-3847-BB83-FF4A3B4EF3E2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{B415E49B-9379-CE4F-8695-4BCC25DB1580}">
       <formula1>"auto,manual"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{6D155AAA-6FFE-BF4F-BD65-58F04B8F16A4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{73D38955-BF7C-A244-87EC-F052708056C6}">
       <formula1>"Bond RX,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="C13" xr:uid="{98E2AE1D-213F-624A-9859-3797A7B1A639}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter time in format hh:mm" sqref="C13" xr:uid="{619127CC-D52D-9C40-9F8A-2CA8E2DB665A}">
       <formula1>0</formula1>
       <formula2>0.999305555555555</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22:D217" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18:D217" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"positive,negative,no_call"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{71DDED78-00EC-2043-9164-1CF770AEC527}">
+      <formula1>"DFCI,Mount Sinai,Stanford,MD Anderson"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2898,7 +2887,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:F5"/>
+  <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2929,16 +2918,16 @@
         <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
@@ -2946,16 +2935,16 @@
         <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
@@ -2963,12 +2952,17 @@
         <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/template_examples/ihc_template.xlsx
+++ b/template_examples/ihc_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DCF029-A608-6447-BF26-8458B3409680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFBECBD-2FD9-B44A-A7D4-98951D0D13FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Legend" sheetId="2" r:id="rId2"/>
     <sheet name="Data Dictionary" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -25,6 +25,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>CIDC</author>
+    <author>tc={DFEBFB27-270E-DA42-B6F7-71AD510C2E08}</author>
   </authors>
   <commentList>
     <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -38,6 +39,15 @@
           </rPr>
           <t>Trial identifier used by lead organization, ie. Center for Experimental Therapeutics Program (CTEP) ID or Industry Sponsored ID.  This is usually a short identifier. Example: E4412.</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="1" shapeId="0" xr:uid="{DFEBFB27-270E-DA42-B6F7-71AD510C2E08}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    # testing integer protocol id
+</t>
       </text>
     </comment>
     <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
@@ -345,7 +355,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="96">
   <si>
     <t>#t</t>
   </si>
@@ -597,9 +607,6 @@
   </si>
   <si>
     <t>no_call</t>
-  </si>
-  <si>
-    <t>test_prism_trial_id</t>
   </si>
   <si>
     <t>XYZ</t>
@@ -642,7 +649,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -670,6 +677,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -756,9 +769,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="46" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -766,6 +776,9 @@
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,6 +794,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Trukhanov, Pavel" id="{295596E3-C609-5F4E-AA95-2576DF890289}" userId="S::pavel_trukhanov@dfci.harvard.edu::dc7c4c00-d7fa-4037-b2d0-c05291f9522b" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1102,12 +1121,21 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C2" dT="2020-07-29T15:47:27.92" personId="{295596E3-C609-5F4E-AA95-2576DF890289}" id="{DFEBFB27-270E-DA42-B6F7-71AD510C2E08}">
+    <text xml:space="preserve"># testing integer protocol id
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1120,19 +1148,19 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1141,8 +1169,8 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>84</v>
+      <c r="C2" s="2">
+        <v>123</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1242,7 +1270,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1262,7 +1290,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1282,7 +1310,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1302,7 +1330,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1322,7 +1350,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1341,7 +1369,7 @@
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>4.1701388888888884</v>
       </c>
       <c r="D12" s="2"/>
@@ -1361,7 +1389,7 @@
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>0.28125</v>
       </c>
       <c r="D13" s="2"/>
@@ -1382,7 +1410,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1395,21 +1423,21 @@
       <c r="L14" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1453,25 +1481,25 @@
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>0.67</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8">
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7">
         <v>0</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="7">
         <v>0</v>
       </c>
       <c r="K18">
@@ -1482,25 +1510,25 @@
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>0.1</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7">
         <v>1</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="7">
         <v>10</v>
       </c>
       <c r="K19">
@@ -1511,25 +1539,25 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <v>0.1</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7">
         <v>2</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="7">
         <v>40</v>
       </c>
       <c r="K20">
@@ -1540,25 +1568,25 @@
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>0.2</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8">
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7">
         <v>3</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="7">
         <v>100</v>
       </c>
       <c r="K21">

--- a/template_examples/ihc_template.xlsx
+++ b/template_examples/ihc_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFBECBD-2FD9-B44A-A7D4-98951D0D13FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3ACB9A8-9DC5-884D-97EE-A5C7AFAA8F31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="23640" windowHeight="13700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IHC" sheetId="1" r:id="rId1"/>
@@ -355,7 +355,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="97">
   <si>
     <t>#t</t>
   </si>
@@ -643,13 +643,16 @@
   </si>
   <si>
     <t>path/to/image4.qptiff</t>
+  </si>
+  <si>
+    <t>Marker call</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,12 +680,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -717,7 +714,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -751,11 +748,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -778,6 +812,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1134,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1422,22 +1468,24 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -2577,7 +2625,7 @@
   <mergeCells count="3">
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="E16:L16"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{06A8DF5B-32CB-064A-A97D-2B9E89AE8172}">

--- a/template_examples/ihc_template.xlsx
+++ b/template_examples/ihc_template.xlsx
@@ -705,7 +705,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>#t</t>
+          <t>#title</t>
         </is>
       </c>
       <c r="B1" s="8" t="inlineStr">
@@ -727,7 +727,7 @@
     <row r="2" ht="16" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -751,7 +751,7 @@
     <row r="3" ht="16" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="4" ht="16" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
     <row r="5" ht="16" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -829,7 +829,7 @@
     <row r="6" ht="16" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
     <row r="7" ht="16" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -881,7 +881,7 @@
     <row r="8" ht="16" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -907,7 +907,7 @@
     <row r="9" ht="16" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="10" ht="16" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -959,7 +959,7 @@
     <row r="11" ht="16" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -985,7 +985,7 @@
     <row r="12" ht="16" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1009,7 +1009,7 @@
     <row r="13" ht="16" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1033,7 +1033,7 @@
     <row r="14" ht="16" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>#mh</t>
+          <t>#skip</t>
         </is>
       </c>
       <c r="B16" s="8" t="inlineStr">
@@ -1090,7 +1090,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>#h</t>
+          <t>#header</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
@@ -1152,7 +1152,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B18" s="7" t="inlineStr">
@@ -1189,7 +1189,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B19" s="7" t="inlineStr">
@@ -1226,7 +1226,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B20" s="7" t="inlineStr">
@@ -1263,7 +1263,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B21" s="7" t="inlineStr">
@@ -1300,1372 +1300,1372 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>

--- a/template_examples/ihc_template.xlsx
+++ b/template_examples/ihc_template.xlsx
@@ -698,7 +698,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col hidden="1" min="1" max="1"/>
+    <col hidden="1" width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>
@@ -1056,7 +1056,6 @@
       <c r="K14" s="2" t="n"/>
       <c r="L14" s="2" t="n"/>
     </row>
-    <row r="15"/>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
@@ -2707,7 +2706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="B1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2715,6 +2714,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>
@@ -3195,7 +3195,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="B1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3203,6 +3203,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>

--- a/template_examples/ihc_template.xlsx
+++ b/template_examples/ihc_template.xlsx
@@ -932,12 +932,12 @@
   <dimension ref="A1:L217"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="30.01"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.66"/>
   </cols>
   <sheetData>
@@ -1351,7 +1351,7 @@
         <v>49</v>
       </c>
       <c r="E20" s="8" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -2429,9 +2429,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.66"/>
   </cols>
   <sheetData>
@@ -2759,9 +2759,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.66"/>
   </cols>
   <sheetData>

--- a/template_examples/ihc_template.xlsx
+++ b/template_examples/ihc_template.xlsx
@@ -931,11 +931,11 @@
   </sheetPr>
   <dimension ref="A1:L217"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.66"/>
@@ -1351,7 +1351,7 @@
         <v>49</v>
       </c>
       <c r="E20" s="8" t="n">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -2429,7 +2429,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.66"/>
@@ -2759,7 +2759,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.66"/>

--- a/template_examples/ihc_template.xlsx
+++ b/template_examples/ihc_template.xlsx
@@ -387,7 +387,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="100">
   <si>
     <t xml:space="preserve">#title</t>
   </si>
@@ -450,6 +450,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dilution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:100</t>
   </si>
   <si>
     <t xml:space="preserve">Incubation time</t>
@@ -931,11 +934,11 @@
   </sheetPr>
   <dimension ref="A1:L217"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.66"/>
@@ -1166,8 +1169,8 @@
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="3" t="n">
-        <v>4.17013888888889</v>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1184,7 +1187,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>0.28125</v>
@@ -1204,10 +1207,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1221,17 +1224,17 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -1243,54 +1246,54 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="8" t="n">
         <v>0.67</v>
@@ -1310,16 +1313,16 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="8" t="n">
         <v>0.1</v>
@@ -1339,16 +1342,16 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E20" s="8" t="n">
         <v>0.1</v>
@@ -1368,19 +1371,19 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -1397,982 +1400,982 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2429,7 +2432,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.66"/>
@@ -2437,12 +2440,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2450,10 +2453,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2461,13 +2464,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2475,13 +2478,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2489,13 +2492,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2503,13 +2506,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2517,10 +2520,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2528,10 +2531,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2539,10 +2542,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2550,10 +2553,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2561,10 +2564,10 @@
         <v>18</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2572,169 +2575,169 @@
         <v>20</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2759,7 +2762,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.66"/>
@@ -2779,7 +2782,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2796,37 +2799,37 @@
         <v>11</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
